--- a/8.2_Full-scale_PSDM_predictions_for_Aquafin/Example_TCE_F400_example2.xlsx
+++ b/8.2_Full-scale_PSDM_predictions_for_Aquafin/Example_TCE_F400_example2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="model-PFHpA" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="model-Trichloroethylene" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B191"/>
+  <dimension ref="A1:B206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>PFHpA</t>
+          <t>Trichloroethylene</t>
         </is>
       </c>
     </row>
@@ -450,111 +450,111 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2.532313152869775e-09</v>
+        <v>2.372105049320748e-09</v>
       </c>
       <c r="B3" t="n">
-        <v>2.029939236634926e-07</v>
+        <v>0.2377020112208769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5.06462630573955e-09</v>
+        <v>4.744210098641496e-09</v>
       </c>
       <c r="B4" t="n">
-        <v>4.056178342867063e-07</v>
+        <v>0.4749855017231683</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.03877578344373e-08</v>
+        <v>2.846526059184897e-08</v>
       </c>
       <c r="B5" t="n">
-        <v>2.399558397294515e-06</v>
+        <v>2.811291908065158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5.571088936313506e-08</v>
+        <v>5.218631108505646e-08</v>
       </c>
       <c r="B6" t="n">
-        <v>4.357051884371956e-06</v>
+        <v>5.106382770135045</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1.682823572172757e-07</v>
+        <v>1.579953329524194e-07</v>
       </c>
       <c r="B7" t="n">
-        <v>1.265056017344205e-05</v>
+        <v>14.8792488900681</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2.808538250714163e-07</v>
+        <v>2.638043548197822e-07</v>
       </c>
       <c r="B8" t="n">
-        <v>2.02613740285588e-05</v>
+        <v>23.87540497450796</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.934252929255569e-07</v>
+        <v>3.696133766871452e-07</v>
       </c>
       <c r="B9" t="n">
-        <v>2.720728527967354e-05</v>
+        <v>32.11562956969117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9.441516673118579e-07</v>
+        <v>8.912912298289467e-07</v>
       </c>
       <c r="B10" t="n">
-        <v>5.295490857392703e-05</v>
+        <v>63.2759700759076</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1.494878041698159e-06</v>
+        <v>1.412969082970748e-06</v>
       </c>
       <c r="B11" t="n">
-        <v>6.660284102354043e-05</v>
+        <v>80.52924812141372</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2.04560441608446e-06</v>
+        <v>1.93464693611255e-06</v>
       </c>
       <c r="B12" t="n">
-        <v>7.076831463061159e-05</v>
+        <v>86.9214510759419</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.247533971703195e-06</v>
+        <v>3.08781222418051e-06</v>
       </c>
       <c r="B13" t="n">
-        <v>5.683400999043748e-05</v>
+        <v>74.20649928263965</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.449463527321929e-06</v>
+        <v>4.24097751224847e-06</v>
       </c>
       <c r="B14" t="n">
-        <v>2.643055851908469e-05</v>
+        <v>42.34329348475454</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>5.355041776201155e-06</v>
+        <v>5.093115768305747e-06</v>
       </c>
       <c r="B15" t="n">
-        <v>6.808325414148013e-07</v>
+        <v>15.54302956789387</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>6.26062002508038e-06</v>
+        <v>5.945254024363024e-06</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>7.166198273959605e-06</v>
+        <v>6.7973922804203e-06</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -570,7 +570,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>8.071776522838829e-06</v>
+        <v>7.649530536477578e-06</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>9.548490497517039e-06</v>
+        <v>9.038058593118327e-06</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1.102520447219525e-05</v>
+        <v>1.042658664975908e-05</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1.250191844687346e-05</v>
+        <v>1.181511470639983e-05</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>1.397863242155167e-05</v>
+        <v>1.320364276304057e-05</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>1.58867117134202e-05</v>
+        <v>1.507214674233348e-05</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>1.779479100528873e-05</v>
+        <v>1.694065072162639e-05</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>1.970287029715726e-05</v>
+        <v>1.880915470091929e-05</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>2.161094958902579e-05</v>
+        <v>2.06776586802122e-05</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -642,79 +642,79 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>2.351902888089432e-05</v>
+        <v>2.295876611678453e-05</v>
       </c>
       <c r="B27" t="n">
-        <v>5.856996418496581e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>2.585945991426479e-05</v>
+        <v>2.523987355335687e-05</v>
       </c>
       <c r="B28" t="n">
-        <v>1.514508767632313e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>2.819989094763525e-05</v>
+        <v>2.752098098992921e-05</v>
       </c>
       <c r="B29" t="n">
-        <v>2.395332487784468e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.054032198100572e-05</v>
+        <v>2.980208842650154e-05</v>
       </c>
       <c r="B30" t="n">
-        <v>2.775581500419341e-05</v>
+        <v>2.269891638593742</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.288075301437619e-05</v>
+        <v>3.208319586307388e-05</v>
       </c>
       <c r="B31" t="n">
-        <v>2.767700771288895e-05</v>
+        <v>2.954880125492501</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.522118404774665e-05</v>
+        <v>3.588186559905816e-05</v>
       </c>
       <c r="B32" t="n">
-        <v>2.488818446474829e-05</v>
+        <v>0.4537066656834559</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.85091650427695e-05</v>
+        <v>3.968053533504244e-05</v>
       </c>
       <c r="B33" t="n">
-        <v>1.830520016683431e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.179714603779235e-05</v>
+        <v>4.347920507102672e-05</v>
       </c>
       <c r="B34" t="n">
-        <v>1.069892305183986e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.50851270328152e-05</v>
+        <v>4.727787480701101e-05</v>
       </c>
       <c r="B35" t="n">
-        <v>3.664093354821087e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.837310802783804e-05</v>
+        <v>5.232047067916524e-05</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>5.307174464745198e-05</v>
+        <v>5.736306655131948e-05</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>5.777038126706593e-05</v>
+        <v>6.240566242347372e-05</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>6.246901788667986e-05</v>
+        <v>6.744825829562796e-05</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>6.716765450629381e-05</v>
+        <v>7.249085416778221e-05</v>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>7.186629112590776e-05</v>
+        <v>8.144957160861831e-05</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>7.859290361403818e-05</v>
+        <v>9.040828904945442e-05</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>8.53195161021686e-05</v>
+        <v>9.936700649029051e-05</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>9.204612859029902e-05</v>
+        <v>0.0001083257239311266</v>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>9.877274107842947e-05</v>
+        <v>0.0001261455030806648</v>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>0.0001087491942317582</v>
+        <v>0.000143965282230203</v>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>0.0001187256473850869</v>
+        <v>0.0001617850613797412</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>0.0001287021005384157</v>
+        <v>0.0002155511983584774</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>0.0001521115235626451</v>
+        <v>0.0002693173353372137</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>0.0001755209465868746</v>
+        <v>0.0003230834723159499</v>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>0.0002429852171681751</v>
+        <v>0.0004775786672900275</v>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>0.0003104494877494757</v>
+        <v>0.0006320738622641052</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>0.0004890145502489616</v>
+        <v>0.0007865690572381828</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>0.0006675796127484476</v>
+        <v>0.001206230754999259</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>0.0008461446752479337</v>
+        <v>0.001625892452760335</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>0.001316867529561634</v>
+        <v>0.002045554150521412</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>0.001787590383875333</v>
+        <v>0.002465215848282488</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>0.002258313238189033</v>
+        <v>0.002961741777929995</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>0.003038236974526792</v>
+        <v>0.003458267707577502</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>0.003818160710864552</v>
+        <v>0.00395479363722501</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>0.00459808444720231</v>
+        <v>0.004451319566872516</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>0.00537800818354007</v>
+        <v>0.004947845496520023</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>0.006414840198381977</v>
+        <v>0.005811823278144257</v>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>0.007451672213223883</v>
+        <v>0.006675801059768493</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>0.008488504228065789</v>
+        <v>0.007539778841392727</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>0.009525336242907696</v>
+        <v>0.008403756623016961</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>0.01125407484198932</v>
+        <v>0.009700149788015847</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -970,175 +970,175 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>0.01298281344107094</v>
+        <v>0.01099654295301473</v>
       </c>
       <c r="B68" t="n">
-        <v>2.621261825797456e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>0.01471155204015256</v>
+        <v>0.01229293611801362</v>
       </c>
       <c r="B69" t="n">
-        <v>5.359284815463322e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>0.01644029063923418</v>
+        <v>0.0135893292830125</v>
       </c>
       <c r="B70" t="n">
-        <v>7.775977166499238e-07</v>
+        <v>0.9596594243052227</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>0.01852605696991218</v>
+        <v>0.01625419813677032</v>
       </c>
       <c r="B71" t="n">
-        <v>1.038141863206924e-06</v>
+        <v>2.924117757772029</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>0.02061182330059019</v>
+        <v>0.01891906699052814</v>
       </c>
       <c r="B72" t="n">
-        <v>1.271099147141838e-06</v>
+        <v>4.610994322067812</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>0.02269758963126819</v>
+        <v>0.02158393584428596</v>
       </c>
       <c r="B73" t="n">
-        <v>1.481401889946917e-06</v>
+        <v>6.036409499002017</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>0.02716411299016132</v>
+        <v>0.02424880469804378</v>
       </c>
       <c r="B74" t="n">
-        <v>1.862488044666631e-06</v>
+        <v>7.224718570206699</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>0.03163063634905443</v>
+        <v>0.02691367355180161</v>
       </c>
       <c r="B75" t="n">
-        <v>2.161938696229116e-06</v>
+        <v>8.199055178279135</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>0.03609715970794756</v>
+        <v>0.03081126116046055</v>
       </c>
       <c r="B76" t="n">
-        <v>2.383530931644369e-06</v>
+        <v>9.288141018211835</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>0.04056368306684068</v>
+        <v>0.03470884876911949</v>
       </c>
       <c r="B77" t="n">
-        <v>2.533648922218807e-06</v>
+        <v>10.03820053994958</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>0.04729971888247614</v>
+        <v>0.03860643637777843</v>
       </c>
       <c r="B78" t="n">
-        <v>2.644651188768471e-06</v>
+        <v>10.50863514919465</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>0.05403575469811159</v>
+        <v>0.04250402398643737</v>
       </c>
       <c r="B79" t="n">
-        <v>2.641351797516597e-06</v>
+        <v>10.7479453406304</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>0.06077179051374704</v>
+        <v>0.04640161159509631</v>
       </c>
       <c r="B80" t="n">
-        <v>2.549280595681386e-06</v>
+        <v>10.79487481743122</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>0.06750782632938249</v>
+        <v>0.05287287205136487</v>
       </c>
       <c r="B81" t="n">
-        <v>2.389285943115248e-06</v>
+        <v>10.53359708695491</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>0.07769710039773434</v>
+        <v>0.05934413250763342</v>
       </c>
       <c r="B82" t="n">
-        <v>2.056548555301618e-06</v>
+        <v>9.940828769364224</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>0.08788637446608619</v>
+        <v>0.06581539296390197</v>
       </c>
       <c r="B83" t="n">
-        <v>1.65527545112428e-06</v>
+        <v>9.098003455215451</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>0.09807564853443805</v>
+        <v>0.07228665342017053</v>
       </c>
       <c r="B84" t="n">
-        <v>1.220638548940552e-06</v>
+        <v>8.071083493425061</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>0.1082649226027899</v>
+        <v>0.07875791387643907</v>
       </c>
       <c r="B85" t="n">
-        <v>7.765521417224042e-07</v>
+        <v>6.912892795293181</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>0.1184541966711418</v>
+        <v>0.08784597780289406</v>
       </c>
       <c r="B86" t="n">
-        <v>3.396550433201064e-07</v>
+        <v>5.142418720567257</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>0.1332683864310233</v>
+        <v>0.09693404172934902</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>3.28673258273095</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>0.1480825761909048</v>
+        <v>0.106022105655804</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1.414158546932799</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>0.1628967659507863</v>
+        <v>0.115110169582259</v>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>0.1777109557106678</v>
+        <v>0.1278417153587561</v>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>0.1979234316032437</v>
+        <v>0.1405732611352533</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>0.2181359074958195</v>
+        <v>0.1533048069117504</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>0.2383483833883953</v>
+        <v>0.1660363526882475</v>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>0.2585608592809712</v>
+        <v>0.1787678984647447</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>0.278773335173547</v>
+        <v>0.1970143802730213</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>0.3091432903903398</v>
+        <v>0.2152608620812981</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>0.3395132456071325</v>
+        <v>0.2335073438895748</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>0.3698832008239253</v>
+        <v>0.2517538256978514</v>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>0.4002531560407181</v>
+        <v>0.2700003075061281</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>0.4389354345947212</v>
+        <v>0.2931126817749391</v>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -1234,143 +1234,143 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>0.4776177131487243</v>
+        <v>0.3162250560437501</v>
       </c>
       <c r="B101" t="n">
-        <v>1.765239954402371e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>0.5162999917027274</v>
+        <v>0.3393374303125611</v>
       </c>
       <c r="B102" t="n">
-        <v>7.821848161384602e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>0.5549822702567306</v>
+        <v>0.3624498045813721</v>
       </c>
       <c r="B103" t="n">
-        <v>1.330466249635601e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>0.5936645488107337</v>
+        <v>0.3855621788501831</v>
       </c>
       <c r="B104" t="n">
-        <v>1.805214513132641e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>0.6465493102631925</v>
+        <v>0.4123043735917921</v>
       </c>
       <c r="B105" t="n">
-        <v>2.315701964540613e-06</v>
+        <v>1.946211745202035</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>0.6994340717156514</v>
+        <v>0.4390465683334011</v>
       </c>
       <c r="B106" t="n">
-        <v>2.635088031861157e-06</v>
+        <v>4.737273378811198</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>0.7523188331681102</v>
+        <v>0.4657887630750101</v>
       </c>
       <c r="B107" t="n">
-        <v>2.757956672591449e-06</v>
+        <v>7.319753844821368</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>0.805203594620569</v>
+        <v>0.4925309578166191</v>
       </c>
       <c r="B108" t="n">
-        <v>2.697364810686737e-06</v>
+        <v>9.601940434956044</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>0.8626582701823062</v>
+        <v>0.5192731525582281</v>
       </c>
       <c r="B109" t="n">
-        <v>2.452116105258642e-06</v>
+        <v>11.50941305999133</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>0.9201129457440435</v>
+        <v>0.5587991277171879</v>
       </c>
       <c r="B110" t="n">
-        <v>2.053032377767725e-06</v>
+        <v>13.54301747581812</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>0.9775676213057808</v>
+        <v>0.5983251028761475</v>
       </c>
       <c r="B111" t="n">
-        <v>1.537975684458926e-06</v>
+        <v>14.58116375635074</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>1.035022296867518</v>
+        <v>0.6378510780351072</v>
       </c>
       <c r="B112" t="n">
-        <v>9.462175724000433e-07</v>
+        <v>14.63503222476846</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>1.092476972429256</v>
+        <v>0.6773770531940669</v>
       </c>
       <c r="B113" t="n">
-        <v>3.128718389960339e-07</v>
+        <v>13.77759517341281</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>1.164124022959756</v>
+        <v>0.7169030283530267</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>12.12266313816859</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>1.235771073490256</v>
+        <v>0.7564290035119865</v>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>9.803240819711728</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>1.307418124020756</v>
+        <v>0.8064487625976297</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>6.12114686471325</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>1.379065174551256</v>
+        <v>0.8564685216832728</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1.845270357605669</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>1.450712225081756</v>
+        <v>0.9064882807689161</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>1.538928490528048</v>
+        <v>0.9456615554657001</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>1.62714475597434</v>
+        <v>0.9848348301624843</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>1.715361021420631</v>
+        <v>1.024008104859268</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>1.803577286866923</v>
+        <v>1.063181379556053</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>1.900495200149987</v>
+        <v>1.102354654252836</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>1.997413113433051</v>
+        <v>1.141527928949621</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -1426,135 +1426,135 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>2.094331026716115</v>
+        <v>1.195702062086119</v>
       </c>
       <c r="B125" t="n">
-        <v>6.622608640881051e-07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>2.191248939999179</v>
+        <v>1.249876195222618</v>
       </c>
       <c r="B126" t="n">
-        <v>1.402408991052542e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>2.293090320532374</v>
+        <v>1.304050328359116</v>
       </c>
       <c r="B127" t="n">
-        <v>2.089515824907704e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>2.394931701065568</v>
+        <v>1.358224461495615</v>
       </c>
       <c r="B128" t="n">
-        <v>2.621131713705094e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>2.496773081598763</v>
+        <v>1.412398594632113</v>
       </c>
       <c r="B129" t="n">
-        <v>2.920978592117225e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>2.598614462131958</v>
+        <v>1.479514065621866</v>
       </c>
       <c r="B130" t="n">
-        <v>2.952421897682819e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>2.700455842665153</v>
+        <v>1.546629536611619</v>
       </c>
       <c r="B131" t="n">
-        <v>2.720531360951864e-06</v>
+        <v>4.853240181284609</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>2.808801492895637</v>
+        <v>1.613745007601372</v>
       </c>
       <c r="B132" t="n">
-        <v>2.211609862291867e-06</v>
+        <v>11.33929901857604</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>2.917147143126122</v>
+        <v>1.680860478591125</v>
       </c>
       <c r="B133" t="n">
-        <v>1.484751105378959e-06</v>
+        <v>17.05215845616411</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>3.025492793356606</v>
+        <v>1.747975949580878</v>
       </c>
       <c r="B134" t="n">
-        <v>6.177918219490984e-07</v>
+        <v>21.28327501217025</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>3.133838443587091</v>
+        <v>1.816243715472806</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>23.5457784930299</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>3.264010311109114</v>
+        <v>1.884511481364734</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>23.45348247016021</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>3.394182178631137</v>
+        <v>1.952779247256662</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>20.94843748903983</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>3.524354046153161</v>
+        <v>2.02104701314859</v>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>16.17972919183309</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>3.654525913675184</v>
+        <v>2.089314779040518</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>9.440692680956886</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>3.784697781197208</v>
+        <v>2.16447782712665</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>0.2412476211731358</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>3.921023457372635</v>
+        <v>2.239640875212781</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -1562,402 +1562,522 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.057349133548063</v>
+        <v>2.286862779669732</v>
       </c>
       <c r="B142" t="n">
-        <v>1.264732786508827e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.193674809723491</v>
+        <v>2.334084684126682</v>
       </c>
       <c r="B143" t="n">
-        <v>3.473163402000845e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.330000485898918</v>
+        <v>2.381306588583632</v>
       </c>
       <c r="B144" t="n">
-        <v>6.377693399901954e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.466326162074346</v>
+        <v>2.428528493040582</v>
       </c>
       <c r="B145" t="n">
-        <v>1.033927785557234e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.625601688863966</v>
+        <v>2.475750397497532</v>
       </c>
       <c r="B146" t="n">
-        <v>1.747624411975094e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.784877215653587</v>
+        <v>2.53242386429701</v>
       </c>
       <c r="B147" t="n">
-        <v>2.98901675650272e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.944152742443207</v>
+        <v>2.589097331096488</v>
       </c>
       <c r="B148" t="n">
-        <v>5.212493237636071e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.103428269232828</v>
+        <v>2.645770797895966</v>
       </c>
       <c r="B149" t="n">
-        <v>9.094841334614332e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.262703796022449</v>
+        <v>2.702444264695444</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0001555069060871419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.429978642336783</v>
+        <v>2.759117731494922</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0002633665187186123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.597253488651119</v>
+        <v>2.82056023166847</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0004263753295661365</v>
+        <v>7.967083909363216</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.764528334965454</v>
+        <v>2.882002731842018</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0006574439410658414</v>
+        <v>20.32680228533997</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.931803181279789</v>
+        <v>2.943445232015567</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0009653178720066062</v>
+        <v>31.5723396782602</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>6.099078027594123</v>
+        <v>3.004887732189115</v>
       </c>
       <c r="B155" t="n">
-        <v>0.001352755600186859</v>
+        <v>39.96014099028427</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>6.321014181369211</v>
+        <v>3.066330232362663</v>
       </c>
       <c r="B156" t="n">
-        <v>0.001983501364203122</v>
+        <v>44.17168518073744</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>6.542950335144299</v>
+        <v>3.123699010651838</v>
       </c>
       <c r="B157" t="n">
-        <v>0.002731243559711912</v>
+        <v>43.09884114624691</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>6.764886488919386</v>
+        <v>3.169750206034206</v>
       </c>
       <c r="B158" t="n">
-        <v>0.003572608845730785</v>
+        <v>38.56845194867633</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>6.986822642694474</v>
+        <v>3.215801401416573</v>
       </c>
       <c r="B159" t="n">
-        <v>0.00448541852800987</v>
+        <v>30.70965416077678</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>7.208758796469562</v>
+        <v>3.261852596798941</v>
       </c>
       <c r="B160" t="n">
-        <v>0.005449992142417461</v>
+        <v>20.9334523673827</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>7.528614687156616</v>
+        <v>3.307903792181309</v>
       </c>
       <c r="B161" t="n">
-        <v>0.006900169660494199</v>
+        <v>12.72508002198648</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>7.848470577843671</v>
+        <v>3.353954987563676</v>
       </c>
       <c r="B162" t="n">
-        <v>0.008385162603598787</v>
+        <v>11.52865957901827</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>8.168326468530728</v>
+        <v>3.401487161453727</v>
       </c>
       <c r="B163" t="n">
-        <v>0.009877420418353607</v>
+        <v>25.13600384464078</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>8.488182359217781</v>
+        <v>3.449019335343779</v>
       </c>
       <c r="B164" t="n">
-        <v>0.01135883039803698</v>
+        <v>62.74131914011188</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>8.99703253713197</v>
+        <v>3.49655150923383</v>
       </c>
       <c r="B165" t="n">
-        <v>0.01366253179670975</v>
+        <v>133.6130313870632</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>9.505882715046159</v>
+        <v>3.544083683123882</v>
       </c>
       <c r="B166" t="n">
-        <v>0.01587382858247246</v>
+        <v>247.5528801809066</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>10.01473289296035</v>
+        <v>3.591615857013934</v>
       </c>
       <c r="B167" t="n">
-        <v>0.01797293505362781</v>
+        <v>417.4726364999827</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>10.52358307087454</v>
+        <v>3.646620667868274</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0199490105493734</v>
+        <v>711.7362579018123</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>11.03243324878872</v>
+        <v>3.701625478722616</v>
       </c>
       <c r="B169" t="n">
-        <v>0.02179686816474665</v>
+        <v>1158.713516912621</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>12.05325160656012</v>
+        <v>3.756630289576957</v>
       </c>
       <c r="B170" t="n">
-        <v>0.025114887968981</v>
+        <v>1818.154031789306</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>13.07406996433152</v>
+        <v>3.811635100431299</v>
       </c>
       <c r="B171" t="n">
-        <v>0.02793475897745179</v>
+        <v>2729.594692352286</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>14.09488832210292</v>
+        <v>3.86663991128564</v>
       </c>
       <c r="B172" t="n">
-        <v>0.03029583498206619</v>
+        <v>3883.177664325599</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>15.11570667987431</v>
+        <v>3.922540550973665</v>
       </c>
       <c r="B173" t="n">
-        <v>0.03224611787521627</v>
+        <v>5243.816069572196</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>16.62901845224327</v>
+        <v>3.978441190661691</v>
       </c>
       <c r="B174" t="n">
-        <v>0.03449733691638537</v>
+        <v>6720.699594034336</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>18.14233022461222</v>
+        <v>4.034341830349716</v>
       </c>
       <c r="B175" t="n">
-        <v>0.03613298776617423</v>
+        <v>8254.777409993425</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>19.65564199698118</v>
+        <v>4.090242470037742</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0373059476141653</v>
+        <v>9805.502160703663</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>21.16895376935013</v>
+        <v>4.146143109725767</v>
       </c>
       <c r="B177" t="n">
-        <v>0.03813958136687524</v>
+        <v>11347.53269711628</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>22.68226554171908</v>
+        <v>4.231837083757334</v>
       </c>
       <c r="B178" t="n">
-        <v>0.038724898508895</v>
+        <v>13659.17889816293</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>25.5125698545176</v>
+        <v>4.317531057788901</v>
       </c>
       <c r="B179" t="n">
-        <v>0.03938673088490965</v>
+        <v>15881.76174018455</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>28.34287416731611</v>
+        <v>4.40322503182047</v>
       </c>
       <c r="B180" t="n">
-        <v>0.03971544229492117</v>
+        <v>18003.97103571081</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>31.17317848011463</v>
+        <v>4.488919005852037</v>
       </c>
       <c r="B181" t="n">
-        <v>0.03987974624045503</v>
+        <v>20023.4945854112</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>34.00348279291314</v>
+        <v>4.625591328913718</v>
       </c>
       <c r="B182" t="n">
-        <v>0.03994396258121825</v>
+        <v>23040.66795498662</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>36.83378710571166</v>
+        <v>4.762263651975398</v>
       </c>
       <c r="B183" t="n">
-        <v>0.03997419492619732</v>
+        <v>25798.60867695149</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>41.49529442218174</v>
+        <v>4.898935975037078</v>
       </c>
       <c r="B184" t="n">
-        <v>0.03998761391310938</v>
+        <v>28322.15569519509</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>46.15680173865184</v>
+        <v>5.03560829809876</v>
       </c>
       <c r="B185" t="n">
-        <v>0.03999209863699407</v>
+        <v>30625.05685318906</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>50.81830905512192</v>
+        <v>5.172280621160439</v>
       </c>
       <c r="B186" t="n">
-        <v>0.03999921768679802</v>
+        <v>32719.38425174622</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>55.47981637159201</v>
+        <v>5.434359671660234</v>
       </c>
       <c r="B187" t="n">
-        <v>0.04000228574837843</v>
+        <v>36197.27818714509</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>71.9655861317141</v>
+        <v>5.696438722160029</v>
       </c>
       <c r="B188" t="n">
-        <v>0.04000242803476458</v>
+        <v>39057.53929062504</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>88.4513558918362</v>
+        <v>5.958517772659824</v>
       </c>
       <c r="B189" t="n">
-        <v>0.03999984063773</v>
+        <v>41387.05829781728</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>104.9371256519583</v>
+        <v>6.220596823159619</v>
       </c>
       <c r="B190" t="n">
-        <v>0.03999956856776083</v>
+        <v>43260.07613668911</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>124</v>
+        <v>6.619025428025638</v>
       </c>
       <c r="B191" t="n">
-        <v>0.03999990613963628</v>
+        <v>45389.27347473561</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>7.017454032891658</v>
+      </c>
+      <c r="B192" t="n">
+        <v>46875.22037011026</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>7.415882637757678</v>
+      </c>
+      <c r="B193" t="n">
+        <v>47889.87971119789</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>7.814311242623696</v>
+      </c>
+      <c r="B194" t="n">
+        <v>48590.75334479111</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>8.413735679073765</v>
+      </c>
+      <c r="B195" t="n">
+        <v>49220.74446693494</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>9.013160115523833</v>
+      </c>
+      <c r="B196" t="n">
+        <v>49566.1331278166</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>9.612584551973901</v>
+      </c>
+      <c r="B197" t="n">
+        <v>49770.1123533623</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>10.21200898842397</v>
+      </c>
+      <c r="B198" t="n">
+        <v>49876.48274774221</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>11.16998681079985</v>
+      </c>
+      <c r="B199" t="n">
+        <v>49963.29677469352</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>12.12796463317574</v>
+      </c>
+      <c r="B200" t="n">
+        <v>49990.950171036</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>13.08594245555162</v>
+      </c>
+      <c r="B201" t="n">
+        <v>49997.58757336903</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>15.81293272890557</v>
+      </c>
+      <c r="B202" t="n">
+        <v>50000.16024074508</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>18.53992300225952</v>
+      </c>
+      <c r="B203" t="n">
+        <v>50000.16001012758</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>39.59107916906824</v>
+      </c>
+      <c r="B204" t="n">
+        <v>50000.00711687216</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>60.64223533587695</v>
+      </c>
+      <c r="B205" t="n">
+        <v>49999.99914967235</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B206" t="n">
+        <v>49999.99993417751</v>
       </c>
     </row>
   </sheetData>
